--- a/Data/Transitions/19401951Translation.xlsx
+++ b/Data/Transitions/19401951Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="699">
   <si>
     <t>id</t>
   </si>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 681.0: 0.005656892172708382, 741.0: 0.0013812154696132596}</t>
+    <t>{46.0: 1.0, 681.0: 0.005656892172708382, 741.0: 0.0013892747985551543}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837}</t>
+    <t>{79.0: 0.9993761696818465}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -178,7 +178,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9985702614379085, 178.0: 0.008743055389971149, 492.0: 0.0034375}</t>
+    <t>{85.0: 0.9985702614379085, 178.0: 0.008789371494318998, 492.0: 0.0034375}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9989854582346973}</t>
+    <t>{97.0: 0.9990077724491483}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.5983649330318316}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.40163506696816836}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -256,10 +256,10 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -328,13 +328,13 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -349,16 +349,16 @@
     <t>{184.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
   </si>
   <si>
     <t>{202.0: 0.2984619464333068, 307.0: 0.9844963966062609}</t>
   </si>
   <si>
-    <t>{203.0: 0.9011118598382749}</t>
+    <t>{203.0: 0.9116096973347387}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -406,10 +406,10 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
   </si>
   <si>
     <t>{222.0: 1.0}</t>
@@ -418,7 +418,7 @@
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,7 +457,7 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -469,13 +469,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.4717851781842442}</t>
+    <t>{858.0: 0.3352162749358088}</t>
   </si>
   <si>
     <t>{246.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,7 +526,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
   </si>
   <si>
     <t>{263.0: 1.0}</t>
@@ -532,13 +535,13 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -646,7 +649,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.18419073314511528}</t>
+    <t>{311.0: 0.26132139123345577}</t>
   </si>
   <si>
     <t>{226.0: 0.2606666044253571, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -667,16 +670,13 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -688,10 +688,10 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.3602408039990831, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.5153463240358885, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -709,7 +709,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6378625352732888, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4827190998121594, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -739,7 +739,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
@@ -754,10 +754,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -847,7 +847,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015123639130140285, 97.0: 0.0010145417653026716}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015122998363626934, 97.0: 0.000992227550851662}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -892,10 +892,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -916,7 +916,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,10 +928,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10538281020827223, 911.0: 0.01249604555520405}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8946171897917278}</t>
+    <t>{542.0: 0.09915131442765474, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9008486855723453}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0}</t>
@@ -985,7 +985,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
+    <t>{573.0: 0.5470310513891411}</t>
   </si>
   <si>
     <t>{580.0: 0.9374294316898758}</t>
@@ -997,7 +997,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1024,10 +1024,10 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1036,7 +1036,7 @@
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1069,7 +1069,7 @@
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1126,7 +1126,7 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
+    <t>{627.0: 0.432346990389479}</t>
   </si>
   <si>
     <t>{629.0: 1.0, 209.0: 0.04254266633687855}</t>
@@ -1150,19 +1150,19 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9970133043714363}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820504535674003}</t>
+    <t>{681.0: 0.9819650489176246}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
@@ -1210,10 +1210,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17918043031872155}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.8208195696812784}</t>
+    <t>{698.0: 0.41478628942427037}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5852137105757296}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1222,7 +1222,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1267,16 +1267,16 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.4368892918303616}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.35001210556048745}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1438,7 +1438,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1468,7 +1468,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.0705509534663924}</t>
+    <t>{858.0: 0.33960102705905587}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1477,7 +1477,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9041179020372778}</t>
+    <t>{861.0: 0.9096479045829589}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1534,10 +1534,10 @@
     <t>{909.0: 0.9909725650610057}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.09588209796272215}</t>
+    <t>{911.0: 0.9875177753199558}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.09035209541704109}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1618,7 +1618,7 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -1663,13 +1663,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3771760347955267}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27784056424541764}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4333451572549258}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22167144178601855}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{5.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{88.0: 0.6996251777174616, 89.0: 0.3003748222825385}</t>
   </si>
   <si>
-    <t>{89.0: 0.9985642498205313, 88.0: 0.0014357501794687725}</t>
+    <t>{89.0: 0.9985642498205313, 88.0: 0.0014357501794687723}</t>
   </si>
   <si>
     <t>{91.0: 0.962925866505937, 104.0: 0.02550693293387343, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
@@ -1747,7 +1747,7 @@
     <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.022032417742405126}</t>
   </si>
   <si>
-    <t>{165.0: 0.9931010392105493, 914.0: 0.006238578376561143, 110.0: 0.0006603824128895607}</t>
+    <t>{165.0: 0.9931010392105492, 914.0: 0.006238578376561143, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1759,10 +1759,10 @@
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.9927808312723697, 681.0: 0.007219168727630309}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.40493211715350297}</t>
+    <t>{178.0: 0.9927247322672178, 681.0: 0.007275267732782239}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.40390225965317234}</t>
   </si>
   <si>
     <t>{180.0: 1.0}</t>
@@ -1825,7 +1825,7 @@
     <t>{270.0: 0.9873640905083753, 479.0: 0.012635909491625037}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328584, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
@@ -1834,7 +1834,7 @@
     <t>{285.0: 0.9971814395692229, 311.0: 0.0028185604307769973}</t>
   </si>
   <si>
-    <t>{286.0: 0.9870967741935484, 909.0: 0.012903225806451613}</t>
+    <t>{286.0: 0.9870967741935484, 909.0: 0.012903225806451615}</t>
   </si>
   <si>
     <t>{297.0: 0.9597833717781568, 298.0: 0.04021662822184335}</t>
@@ -1858,7 +1858,7 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484791, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881432, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
@@ -1909,7 +1909,7 @@
     <t>{531.0: 0.9788982259570493, 262.0: 0.019981325863678803, 442.0: 0.0011204481792717086}</t>
   </si>
   <si>
-    <t>{534.0: 0.9992392131290078, 402.0: 0.0007592707552669103, 141.0: 1.5161157253732234e-06}</t>
+    <t>{534.0: 0.9992392131290077, 402.0: 0.0007592707552669103, 141.0: 1.5161157253732234e-06}</t>
   </si>
   <si>
     <t>{537.0: 0.9727987104573846, 608.0: 0.027201289542615352}</t>
@@ -1942,7 +1942,7 @@
     <t>{581.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.9961873638344226, 758.0: 0.003812636165577342}</t>
+    <t>{583.0: 0.9961873638344225, 758.0: 0.003812636165577342}</t>
   </si>
   <si>
     <t>{588.0: 0.9977079990831996, 507.0: 0.0022920009168003667}</t>
@@ -2017,9 +2017,6 @@
     <t>{741.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.9961873638344225, 758.0: 0.003812636165577342}</t>
-  </si>
-  <si>
     <t>{743.0: 1.0}</t>
   </si>
   <si>
@@ -2038,7 +2035,7 @@
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9980229339659945, 420.0: 0.0019770660340055358}</t>
+    <t>{778.0: 0.9980229339659944, 420.0: 0.0019770660340055358}</t>
   </si>
   <si>
     <t>{785.0: 1.0}</t>
@@ -2080,7 +2077,7 @@
     <t>{896.0: 0.8730158730158729, 209.0: 0.1035923141186299, 400.0: 0.007518796992481203, 432.0: 0.00835421888053467, 895.0: 0.007518796992481203}</t>
   </si>
   <si>
-    <t>{908.0: 0.9728417087917534, 788.0: 0.0271582912082466}</t>
+    <t>{908.0: 0.9728417087917534, 788.0: 0.027158291208246605}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -2104,7 +2101,7 @@
     <t>{940.0: 0.9931610942249239, 785.0: 0.006838905775075989}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.1613396177119069, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.7700641420657478, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{978.0: 0.9504155918601318, 489.0: 0.049584408139868155}</t>
@@ -4118,7 +4115,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4129,7 +4126,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4140,29 +4137,29 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>584</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>584</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4173,7 +4170,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4184,7 +4181,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4195,29 +4192,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>598</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>598</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4228,29 +4225,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>599</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>599</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4261,7 +4258,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4272,7 +4269,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4283,7 +4280,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4305,7 +4302,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4316,29 +4313,29 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>600</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>600</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4349,51 +4346,51 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>601</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>601</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>602</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4404,7 +4401,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4415,7 +4412,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4426,29 +4423,29 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>603</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4459,7 +4456,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4470,7 +4467,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4481,29 +4478,29 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>604</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4514,7 +4511,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4525,40 +4522,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>605</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>606</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4569,7 +4566,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4580,7 +4577,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4591,7 +4588,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4602,7 +4599,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4613,7 +4610,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4624,7 +4621,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4635,40 +4632,40 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>607</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>608</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4679,29 +4676,29 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>609</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>609</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4723,7 +4720,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4734,7 +4731,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4745,7 +4742,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4756,7 +4753,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4767,40 +4764,40 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>585</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>610</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4811,7 +4808,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4822,7 +4819,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4833,7 +4830,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4844,7 +4841,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -7061,7 +7058,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7072,7 +7069,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7083,7 +7080,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7160,7 +7157,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7215,7 +7212,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7226,7 +7223,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7259,7 +7256,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7347,7 +7344,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7391,7 +7388,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7446,7 +7443,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7479,7 +7476,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7523,7 +7520,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7567,7 +7564,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7633,7 +7630,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7677,7 +7674,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7721,7 +7718,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7732,7 +7729,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7820,7 +7817,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7864,7 +7861,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7886,7 +7883,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7963,7 +7960,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7974,7 +7971,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8007,7 +8004,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8018,7 +8015,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8029,7 +8026,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8040,7 +8037,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8062,7 +8059,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8106,7 +8103,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8139,7 +8136,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8150,7 +8147,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8304,7 +8301,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8337,7 +8334,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8436,7 +8433,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8447,7 +8444,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8458,7 +8455,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -8502,7 +8499,7 @@
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -8513,7 +8510,7 @@
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="550" spans="1:3">
